--- a/wti模型3.0/eta/美国RBOB汽油裂解_月度数据.xlsx
+++ b/wti模型3.0/eta/美国RBOB汽油裂解_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>17.83</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.67</v>
+        <v>16.77</v>
       </c>
       <c r="C3" t="n">
-        <v>16.86</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>18.43</v>
       </c>
       <c r="C5" t="n">
-        <v>18.58</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>22.83</v>
       </c>
       <c r="C6" t="n">
-        <v>22.43</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>23.11</v>
       </c>
       <c r="C7" t="n">
-        <v>22.99</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>26.22</v>
       </c>
       <c r="C8" t="n">
-        <v>26.19</v>
+        <v>26.11</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>24.6</v>
       </c>
       <c r="C9" t="n">
-        <v>24.58</v>
+        <v>24.57</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>23.91</v>
       </c>
       <c r="C10" t="n">
-        <v>24.1</v>
+        <v>24.07</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>25.44</v>
       </c>
       <c r="C11" t="n">
-        <v>25.07</v>
+        <v>25.05</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>13.47</v>
       </c>
       <c r="C12" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>13.16</v>
       </c>
       <c r="C13" t="n">
-        <v>13.47</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>13.42</v>
       </c>
       <c r="C14" t="n">
-        <v>13.58</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="15">
@@ -653,7 +653,7 @@
         <v>15.4</v>
       </c>
       <c r="C17" t="n">
-        <v>15.42</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>24.18</v>
       </c>
       <c r="C18" t="n">
-        <v>24.05</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>23.96</v>
       </c>
       <c r="C19" t="n">
-        <v>23.88</v>
+        <v>23.91</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>26.68</v>
       </c>
       <c r="C20" t="n">
-        <v>26.75</v>
+        <v>26.77</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>31.16</v>
       </c>
       <c r="C21" t="n">
-        <v>31.15</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>31.54</v>
       </c>
       <c r="C22" t="n">
-        <v>31.53</v>
+        <v>31.57</v>
       </c>
     </row>
     <row r="23">
@@ -744,7 +744,7 @@
         <v>17.96</v>
       </c>
       <c r="C24" t="n">
-        <v>18.33</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="25">
